--- a/Docs/API USAGE.xlsx
+++ b/Docs/API USAGE.xlsx
@@ -93,7 +93,7 @@
     <t>FERoles</t>
   </si>
   <si>
-    <t>Roles, ServiceAttributes, Services, UserAppRoleServices</t>
+    <t>Roles, ServiceAttributes, Attributes, Services, UserAppRoleServices</t>
   </si>
 </sst>
 </file>
@@ -253,31 +253,12 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -353,87 +334,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -441,30 +341,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -480,7 +380,137 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -493,36 +523,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -539,29 +539,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:F1048576"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Controller" dataDxfId="5"/>
-    <tableColumn id="2" name="GET" dataDxfId="4"/>
-    <tableColumn id="3" name="POST" dataDxfId="3"/>
-    <tableColumn id="4" name="PUT" dataDxfId="2"/>
-    <tableColumn id="5" name="DELETE" dataDxfId="1"/>
-    <tableColumn id="6" name="Tables Affected" dataDxfId="0"/>
+    <tableColumn id="1" name="Controller" dataDxfId="15"/>
+    <tableColumn id="2" name="GET" dataDxfId="14"/>
+    <tableColumn id="3" name="POST" dataDxfId="13"/>
+    <tableColumn id="4" name="PUT" dataDxfId="12"/>
+    <tableColumn id="5" name="DELETE" dataDxfId="11"/>
+    <tableColumn id="6" name="Tables Affected" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E1048576"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Controller" dataDxfId="10"/>
-    <tableColumn id="2" name="GET" dataDxfId="9"/>
-    <tableColumn id="3" name="POST" dataDxfId="8"/>
-    <tableColumn id="4" name="PUT" dataDxfId="7"/>
-    <tableColumn id="5" name="DELETE" dataDxfId="6"/>
+    <tableColumn id="1" name="Controller" dataDxfId="4"/>
+    <tableColumn id="2" name="GET" dataDxfId="3"/>
+    <tableColumn id="3" name="POST" dataDxfId="2"/>
+    <tableColumn id="4" name="PUT" dataDxfId="1"/>
+    <tableColumn id="5" name="DELETE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
